--- a/exemplo_dados_entrada.xlsx
+++ b/exemplo_dados_entrada.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/455f49c1690e736c/LabMap/Rose Charter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/455f49c1690e736c/LabMap/Rose Charter/rose-charter-rep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{CE06121A-4825-4B1F-AC21-5EE2E69F65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC0280D2-3D2F-4280-96D7-D46014917C26}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CE06121A-4825-4B1F-AC21-5EE2E69F65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F81DD3C-6EF4-4621-93C5-92EC3D83676A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A228247E-ED11-44A2-9438-DF354E1E6818}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dip direction" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/exemplo_dados_entrada.xlsx
+++ b/exemplo_dados_entrada.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/455f49c1690e736c/LabMap/Rose Charter/rose-charter-rep/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CE06121A-4825-4B1F-AC21-5EE2E69F65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F81DD3C-6EF4-4621-93C5-92EC3D83676A}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A228247E-ED11-44A2-9438-DF354E1E6818}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Dip direction" sheetId="1" r:id="rId1"/>
+    <sheet name="Dip direction" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="723">
   <si>
+    <t>ponto</t>
+  </si>
+  <si>
+    <t>sentido_mergulho_foliacao</t>
+  </si>
+  <si>
+    <t>mergulho_foliacao</t>
+  </si>
+  <si>
     <t>PTI-1001</t>
   </si>
   <si>
@@ -2195,32 +2182,22 @@
   </si>
   <si>
     <t>PTI-9069</t>
-  </si>
-  <si>
-    <t>mergulho</t>
-  </si>
-  <si>
-    <t>ponto</t>
-  </si>
-  <si>
-    <t>sentido_de_mergulho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2257,21 +2234,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2283,15 +2260,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2333,108 +2590,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2442,7 +2605,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2468,7 +2631,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2520,16 +2683,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2545,7 +2720,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2576,64 +2751,57 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB888F5-F622-4122-9704-50CE81A9A413}">
-  <dimension ref="A1:C721"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="2" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="10.44140625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="2" width="24.94140625"/>
+    <col customWidth="1" min="3" max="3" style="2" width="17.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>320</v>
@@ -2642,49 +2810,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>249</v>
@@ -2693,44 +2861,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>299</v>
@@ -2739,24 +2907,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="24">
+      <c r="A24" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>340</v>
@@ -2765,9 +2933,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>300</v>
@@ -2776,14 +2944,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>317</v>
@@ -2792,14 +2960,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>360</v>
@@ -2808,54 +2976,54 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="34">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="35">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="36">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="37">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="38">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="39">
+      <c r="A39" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>334</v>
@@ -2864,44 +3032,44 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="43">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="44">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="45">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="46">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="47">
+      <c r="A47" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>235</v>
@@ -2910,9 +3078,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>49</v>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B51" s="2">
         <v>195</v>
@@ -2921,49 +3089,49 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="52">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="53">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="54">
+      <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="55">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="56">
+      <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="57">
+      <c r="A57" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>30</v>
@@ -2972,14 +3140,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>60</v>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>206</v>
@@ -2988,19 +3156,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>63</v>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>235</v>
@@ -3009,29 +3177,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="66">
+      <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="67">
+      <c r="A67" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>220</v>
@@ -3040,34 +3208,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="71">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="72">
+      <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="73">
+      <c r="A73" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>282</v>
@@ -3076,9 +3244,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>75</v>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>200</v>
@@ -3087,19 +3255,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>78</v>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B80" s="2">
         <v>274</v>
@@ -3108,9 +3276,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>79</v>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B81" s="2">
         <v>240</v>
@@ -3119,14 +3287,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>81</v>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B83" s="2">
         <v>220</v>
@@ -3135,9 +3303,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>82</v>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B84" s="2">
         <v>240</v>
@@ -3146,19 +3314,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>85</v>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B87" s="2">
         <v>170</v>
@@ -3167,9 +3335,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>86</v>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>182</v>
@@ -3178,9 +3346,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>87</v>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>200</v>
@@ -3189,14 +3357,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>89</v>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>245</v>
@@ -3205,24 +3373,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+    <row r="92">
+      <c r="A92" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>190</v>
@@ -3231,29 +3399,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+    <row r="96">
+      <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="97">
+      <c r="A97" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>200</v>
@@ -3262,34 +3430,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="101">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+    <row r="102">
+      <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="103">
+      <c r="A103" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>225</v>
@@ -3298,9 +3466,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>105</v>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>230</v>
@@ -3309,24 +3477,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+    <row r="108">
+      <c r="A108" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>180</v>
@@ -3335,34 +3503,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+    <row r="112">
+      <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="113">
+      <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+    <row r="114">
+      <c r="A114" s="1" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B117" s="2">
         <v>173</v>
@@ -3371,14 +3539,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>117</v>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B119" s="2">
         <v>230</v>
@@ -3387,29 +3555,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+    <row r="120">
+      <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+    <row r="121">
+      <c r="A121" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B124" s="2">
         <v>190</v>
@@ -3418,24 +3586,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+    <row r="125">
+      <c r="A125" s="1" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B128" s="2">
         <v>180</v>
@@ -3444,59 +3612,59 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+    <row r="129">
+      <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+    <row r="130">
+      <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+    <row r="131">
+      <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+    <row r="132">
+      <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+    <row r="133">
+      <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+    <row r="134">
+      <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+    <row r="135">
+      <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+    <row r="136">
+      <c r="A136" s="1" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B139" s="2">
         <v>320</v>
@@ -3505,9 +3673,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>138</v>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B140" s="2">
         <v>300</v>
@@ -3516,9 +3684,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>139</v>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B141" s="2">
         <v>310</v>
@@ -3527,14 +3695,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>141</v>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B143" s="2">
         <v>350</v>
@@ -3543,9 +3711,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>142</v>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B144" s="2">
         <v>270</v>
@@ -3554,19 +3722,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>145</v>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B147" s="2">
         <v>220</v>
@@ -3575,14 +3743,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>147</v>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B149" s="2">
         <v>265</v>
@@ -3591,14 +3759,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>149</v>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B151" s="2">
         <v>315</v>
@@ -3607,9 +3775,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>150</v>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B152" s="2">
         <v>260</v>
@@ -3618,14 +3786,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>152</v>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B154" s="2">
         <v>110</v>
@@ -3634,9 +3802,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>153</v>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B155" s="2">
         <v>150</v>
@@ -3645,9 +3813,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>154</v>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B156" s="2">
         <v>190</v>
@@ -3656,9 +3824,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>155</v>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B157" s="2">
         <v>200</v>
@@ -3667,104 +3835,104 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
+    <row r="158">
+      <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
+    <row r="159">
+      <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
+    <row r="160">
+      <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
+    <row r="161">
+      <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
+    <row r="162">
+      <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
+    <row r="163">
+      <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
+    <row r="164">
+      <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
+    <row r="165">
+      <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
+    <row r="166">
+      <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
+    <row r="167">
+      <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
+    <row r="168">
+      <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
+    <row r="169">
+      <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
+    <row r="170">
+      <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
+    <row r="171">
+      <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
+    <row r="172">
+      <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
+    <row r="173">
+      <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
+    <row r="174">
+      <c r="A174" s="1" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B177" s="2">
         <v>345</v>
@@ -3773,69 +3941,69 @@
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+    <row r="178">
+      <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
+    <row r="179">
+      <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
+    <row r="180">
+      <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+    <row r="181">
+      <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
+    <row r="182">
+      <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
+    <row r="183">
+      <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
+    <row r="184">
+      <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
+    <row r="185">
+      <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
+    <row r="186">
+      <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
+    <row r="187">
+      <c r="A187" s="1" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B190" s="2">
         <v>220</v>
@@ -3844,89 +4012,89 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
+    <row r="191">
+      <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
+    <row r="192">
+      <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="4" t="s">
+    <row r="193">
+      <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
+    <row r="194">
+      <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="4" t="s">
+    <row r="195">
+      <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
+    <row r="196">
+      <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
+    <row r="197">
+      <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
+    <row r="198">
+      <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="4" t="s">
+    <row r="199">
+      <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
+    <row r="200">
+      <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
+    <row r="201">
+      <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="4" t="s">
+    <row r="202">
+      <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
+    <row r="203">
+      <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="4" t="s">
+    <row r="204">
+      <c r="A204" s="1" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B207" s="2">
         <v>192</v>
@@ -3935,9 +4103,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="4" t="s">
-        <v>206</v>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B208" s="2">
         <v>207</v>
@@ -3946,9 +4114,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="4" t="s">
-        <v>207</v>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B209" s="2">
         <v>219</v>
@@ -3957,39 +4125,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="4" t="s">
+    <row r="210">
+      <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
+    <row r="211">
+      <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+    <row r="212">
+      <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
+    <row r="213">
+      <c r="A213" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B216" s="2">
         <v>238</v>
@@ -3998,119 +4166,119 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="4" t="s">
+    <row r="217">
+      <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
+    <row r="218">
+      <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
+    <row r="219">
+      <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
+    <row r="220">
+      <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
+    <row r="221">
+      <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
+    <row r="222">
+      <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="4" t="s">
+    <row r="223">
+      <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
+    <row r="224">
+      <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
+    <row r="225">
+      <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
+    <row r="226">
+      <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
+    <row r="227">
+      <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
+    <row r="228">
+      <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
+    <row r="229">
+      <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
+    <row r="230">
+      <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
+    <row r="231">
+      <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
+    <row r="232">
+      <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
+    <row r="233">
+      <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
+    <row r="234">
+      <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
+    <row r="235">
+      <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
+    <row r="236">
+      <c r="A236" s="1" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B239" s="2">
         <v>245</v>
@@ -4119,54 +4287,54 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
+    <row r="240">
+      <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="4" t="s">
+    <row r="241">
+      <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
+    <row r="242">
+      <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
+    <row r="243">
+      <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
+    <row r="244">
+      <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="4" t="s">
+    <row r="245">
+      <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="4" t="s">
+    <row r="246">
+      <c r="A246" s="1" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B249" s="2">
         <v>325</v>
@@ -4175,34 +4343,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="4" t="s">
+    <row r="250">
+      <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="4" t="s">
+    <row r="251">
+      <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
+    <row r="252">
+      <c r="A252" s="1" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B255" s="2">
         <v>310</v>
@@ -4211,24 +4379,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
+    <row r="256">
+      <c r="A256" s="1" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B259" s="2">
         <v>180</v>
@@ -4237,64 +4405,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
+    <row r="260">
+      <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="4" t="s">
+    <row r="261">
+      <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="4" t="s">
+    <row r="262">
+      <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="4" t="s">
+    <row r="263">
+      <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="4" t="s">
+    <row r="264">
+      <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
+    <row r="265">
+      <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
+    <row r="266">
+      <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="4" t="s">
+    <row r="267">
+      <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="4" t="s">
+    <row r="268">
+      <c r="A268" s="1" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B271" s="2">
         <v>220</v>
@@ -4303,39 +4471,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="4" t="s">
+    <row r="272">
+      <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="4" t="s">
+    <row r="273">
+      <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="4" t="s">
+    <row r="274">
+      <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="4" t="s">
+    <row r="275">
+      <c r="A275" s="1" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B278" s="2">
         <v>185</v>
@@ -4344,49 +4512,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="4" t="s">
+    <row r="279">
+      <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="4" t="s">
+    <row r="280">
+      <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="4" t="s">
+    <row r="281">
+      <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="4" t="s">
+    <row r="282">
+      <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="4" t="s">
+    <row r="283">
+      <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="4" t="s">
+    <row r="284">
+      <c r="A284" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B287" s="2">
         <v>205</v>
@@ -4395,19 +4563,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="4" t="s">
-        <v>288</v>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B290" s="2">
         <v>20</v>
@@ -4416,9 +4584,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="4" t="s">
-        <v>289</v>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B291" s="2">
         <v>350</v>
@@ -4427,14 +4595,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="4" t="s">
-        <v>291</v>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B293" s="2">
         <v>295</v>
@@ -4443,39 +4611,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="4" t="s">
+    <row r="294">
+      <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="4" t="s">
+    <row r="295">
+      <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="4" t="s">
+    <row r="296">
+      <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="4" t="s">
+    <row r="297">
+      <c r="A297" s="1" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B300" s="2">
         <v>340</v>
@@ -4484,34 +4652,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="4" t="s">
+    <row r="301">
+      <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="4" t="s">
+    <row r="302">
+      <c r="A302" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="4" t="s">
+    <row r="303">
+      <c r="A303" s="1" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B306" s="2">
         <v>170</v>
@@ -4520,44 +4688,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="4" t="s">
+    <row r="307">
+      <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="4" t="s">
+    <row r="308">
+      <c r="A308" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="4" t="s">
+    <row r="309">
+      <c r="A309" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="4" t="s">
+    <row r="310">
+      <c r="A310" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="4" t="s">
+    <row r="311">
+      <c r="A311" s="1" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B314" s="2">
         <v>270</v>
@@ -4566,14 +4734,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="4" t="s">
-        <v>314</v>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B316" s="2">
         <v>305</v>
@@ -4582,9 +4750,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="4" t="s">
-        <v>315</v>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="B317" s="2">
         <v>340</v>
@@ -4593,29 +4761,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="4" t="s">
+    <row r="318">
+      <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="4" t="s">
+    <row r="319">
+      <c r="A319" s="1" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B322" s="2">
         <v>260</v>
@@ -4624,534 +4792,534 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="4" t="s">
+    <row r="323">
+      <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="4" t="s">
+    <row r="324">
+      <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="4" t="s">
+    <row r="325">
+      <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="4" t="s">
+    <row r="326">
+      <c r="A326" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="4" t="s">
+    <row r="327">
+      <c r="A327" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="4" t="s">
+    <row r="328">
+      <c r="A328" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="4" t="s">
+    <row r="329">
+      <c r="A329" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="4" t="s">
+    <row r="330">
+      <c r="A330" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="4" t="s">
+    <row r="331">
+      <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="4" t="s">
+    <row r="332">
+      <c r="A332" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="4" t="s">
+    <row r="333">
+      <c r="A333" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="4" t="s">
+    <row r="334">
+      <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="4" t="s">
+    <row r="335">
+      <c r="A335" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="4" t="s">
+    <row r="336">
+      <c r="A336" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" s="4" t="s">
+    <row r="337">
+      <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="4" t="s">
+    <row r="338">
+      <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="4" t="s">
+    <row r="339">
+      <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" s="4" t="s">
+    <row r="340">
+      <c r="A340" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="4" t="s">
+    <row r="341">
+      <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="4" t="s">
+    <row r="342">
+      <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" s="4" t="s">
+    <row r="343">
+      <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="4" t="s">
+    <row r="344">
+      <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" s="4" t="s">
+    <row r="345">
+      <c r="A345" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" s="4" t="s">
+    <row r="346">
+      <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="4" t="s">
+    <row r="347">
+      <c r="A347" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" s="4" t="s">
+    <row r="348">
+      <c r="A348" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" s="4" t="s">
+    <row r="349">
+      <c r="A349" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="4" t="s">
+    <row r="350">
+      <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="4" t="s">
+    <row r="351">
+      <c r="A351" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" s="4" t="s">
+    <row r="352">
+      <c r="A352" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="4" t="s">
+    <row r="353">
+      <c r="A353" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4" t="s">
+    <row r="354">
+      <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="4" t="s">
+    <row r="355">
+      <c r="A355" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="4" t="s">
+    <row r="356">
+      <c r="A356" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="4" t="s">
+    <row r="357">
+      <c r="A357" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="4" t="s">
+    <row r="358">
+      <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" s="4" t="s">
+    <row r="359">
+      <c r="A359" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" s="4" t="s">
+    <row r="360">
+      <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="4" t="s">
+    <row r="361">
+      <c r="A361" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="4" t="s">
+    <row r="362">
+      <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" s="4" t="s">
+    <row r="363">
+      <c r="A363" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" s="4" t="s">
+    <row r="364">
+      <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" s="4" t="s">
+    <row r="365">
+      <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" s="4" t="s">
+    <row r="366">
+      <c r="A366" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" s="4" t="s">
+    <row r="367">
+      <c r="A367" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" s="4" t="s">
+    <row r="368">
+      <c r="A368" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" s="4" t="s">
+    <row r="369">
+      <c r="A369" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" s="4" t="s">
+    <row r="370">
+      <c r="A370" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" s="4" t="s">
+    <row r="371">
+      <c r="A371" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" s="4" t="s">
+    <row r="372">
+      <c r="A372" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" s="4" t="s">
+    <row r="373">
+      <c r="A373" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" s="4" t="s">
+    <row r="374">
+      <c r="A374" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" s="4" t="s">
+    <row r="375">
+      <c r="A375" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" s="4" t="s">
+    <row r="376">
+      <c r="A376" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" s="4" t="s">
+    <row r="377">
+      <c r="A377" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" s="4" t="s">
+    <row r="378">
+      <c r="A378" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="4" t="s">
+    <row r="379">
+      <c r="A379" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" s="4" t="s">
+    <row r="380">
+      <c r="A380" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" s="4" t="s">
+    <row r="381">
+      <c r="A381" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" s="4" t="s">
+    <row r="382">
+      <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" s="4" t="s">
+    <row r="383">
+      <c r="A383" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" s="4" t="s">
+    <row r="384">
+      <c r="A384" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="4" t="s">
+    <row r="385">
+      <c r="A385" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="4" t="s">
+    <row r="386">
+      <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="4" t="s">
+    <row r="387">
+      <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="4" t="s">
+    <row r="388">
+      <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="4" t="s">
+    <row r="389">
+      <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="4" t="s">
+    <row r="390">
+      <c r="A390" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" s="4" t="s">
+    <row r="391">
+      <c r="A391" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="4" t="s">
+    <row r="392">
+      <c r="A392" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="4" t="s">
+    <row r="393">
+      <c r="A393" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="4" t="s">
+    <row r="394">
+      <c r="A394" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="4" t="s">
+    <row r="395">
+      <c r="A395" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="4" t="s">
+    <row r="396">
+      <c r="A396" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="4" t="s">
+    <row r="397">
+      <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="4" t="s">
+    <row r="398">
+      <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="4" t="s">
+    <row r="399">
+      <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="4" t="s">
+    <row r="400">
+      <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="4" t="s">
+    <row r="401">
+      <c r="A401" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="4" t="s">
+    <row r="402">
+      <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="4" t="s">
+    <row r="403">
+      <c r="A403" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="4" t="s">
+    <row r="404">
+      <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="4" t="s">
+    <row r="405">
+      <c r="A405" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="4" t="s">
+    <row r="406">
+      <c r="A406" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="4" t="s">
+    <row r="407">
+      <c r="A407" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="4" t="s">
+    <row r="408">
+      <c r="A408" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="4" t="s">
+    <row r="409">
+      <c r="A409" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="4" t="s">
+    <row r="410">
+      <c r="A410" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="4" t="s">
+    <row r="411">
+      <c r="A411" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="4" t="s">
+    <row r="412">
+      <c r="A412" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="4" t="s">
+    <row r="413">
+      <c r="A413" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="4" t="s">
+    <row r="414">
+      <c r="A414" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="4" t="s">
+    <row r="415">
+      <c r="A415" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="4" t="s">
+    <row r="416">
+      <c r="A416" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="4" t="s">
+    <row r="417">
+      <c r="A417" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="4" t="s">
+    <row r="418">
+      <c r="A418" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="4" t="s">
+    <row r="419">
+      <c r="A419" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="4" t="s">
+    <row r="420">
+      <c r="A420" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="4" t="s">
+    <row r="421">
+      <c r="A421" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="4" t="s">
+    <row r="422">
+      <c r="A422" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="4" t="s">
+    <row r="423">
+      <c r="A423" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="4" t="s">
+    <row r="424">
+      <c r="A424" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="4" t="s">
+    <row r="425">
+      <c r="A425" s="1" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="B428" s="2">
         <v>162</v>
@@ -5160,124 +5328,124 @@
         <v>54</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="4" t="s">
+    <row r="429">
+      <c r="A429" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" s="4" t="s">
+    <row r="430">
+      <c r="A430" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" s="4" t="s">
+    <row r="431">
+      <c r="A431" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="4" t="s">
+    <row r="432">
+      <c r="A432" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" s="4" t="s">
+    <row r="433">
+      <c r="A433" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" s="4" t="s">
+    <row r="434">
+      <c r="A434" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" s="4" t="s">
+    <row r="435">
+      <c r="A435" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" s="4" t="s">
+    <row r="436">
+      <c r="A436" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" s="4" t="s">
+    <row r="437">
+      <c r="A437" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" s="4" t="s">
+    <row r="438">
+      <c r="A438" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" s="4" t="s">
+    <row r="439">
+      <c r="A439" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" s="4" t="s">
+    <row r="440">
+      <c r="A440" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" s="4" t="s">
+    <row r="441">
+      <c r="A441" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" s="4" t="s">
+    <row r="442">
+      <c r="A442" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" s="4" t="s">
+    <row r="443">
+      <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" s="4" t="s">
+    <row r="444">
+      <c r="A444" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" s="4" t="s">
+    <row r="445">
+      <c r="A445" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="4" t="s">
+    <row r="446">
+      <c r="A446" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="4" t="s">
+    <row r="447">
+      <c r="A447" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="4" t="s">
+    <row r="448">
+      <c r="A448" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="4" t="s">
+    <row r="449">
+      <c r="A449" s="1" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="B452" s="2">
         <v>183</v>
@@ -5286,19 +5454,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="4" t="s">
-        <v>453</v>
+    <row r="453">
+      <c r="A453" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B455" s="2">
         <v>184</v>
@@ -5307,34 +5475,34 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="4" t="s">
+    <row r="456">
+      <c r="A456" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="4" t="s">
+    <row r="457">
+      <c r="A457" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="4" t="s">
+    <row r="458">
+      <c r="A458" s="1" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="B461" s="2">
         <v>200</v>
@@ -5343,9 +5511,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="4" t="s">
-        <v>460</v>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="B462" s="2">
         <v>178</v>
@@ -5354,14 +5522,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="4" t="s">
-        <v>462</v>
+    <row r="463">
+      <c r="A463" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="B464" s="2">
         <v>249</v>
@@ -5370,9 +5538,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="4" t="s">
-        <v>463</v>
+    <row r="465">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="B465" s="2">
         <v>134</v>
@@ -5381,9 +5549,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="4" t="s">
-        <v>464</v>
+    <row r="466">
+      <c r="A466" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="B466" s="2">
         <v>198</v>
@@ -5392,34 +5560,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="4" t="s">
+    <row r="467">
+      <c r="A467" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="4" t="s">
+    <row r="468">
+      <c r="A468" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="4" t="s">
+    <row r="469">
+      <c r="A469" s="1" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="B472" s="2">
         <v>200</v>
@@ -5428,9 +5596,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="4" t="s">
-        <v>471</v>
+    <row r="473">
+      <c r="A473" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="B473" s="2">
         <v>180</v>
@@ -5439,39 +5607,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="4" t="s">
+    <row r="474">
+      <c r="A474" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="4" t="s">
+    <row r="475">
+      <c r="A475" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="4" t="s">
+    <row r="476">
+      <c r="A476" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="4" t="s">
+    <row r="477">
+      <c r="A477" s="1" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="B480" s="2">
         <v>196</v>
@@ -5480,9 +5648,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="4" t="s">
-        <v>479</v>
+    <row r="481">
+      <c r="A481" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="B481" s="2">
         <v>175</v>
@@ -5491,44 +5659,44 @@
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="4" t="s">
+    <row r="482">
+      <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="4" t="s">
+    <row r="483">
+      <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="4" t="s">
+    <row r="484">
+      <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="4" t="s">
+    <row r="485">
+      <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="4" t="s">
+    <row r="486">
+      <c r="A486" s="1" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="B489" s="2">
         <v>180</v>
@@ -5537,9 +5705,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="4" t="s">
-        <v>488</v>
+    <row r="490">
+      <c r="A490" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="B490" s="2">
         <v>186</v>
@@ -5548,19 +5716,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="4" t="s">
-        <v>491</v>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="B493" s="2">
         <v>195</v>
@@ -5569,9 +5737,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="4" t="s">
-        <v>492</v>
+    <row r="494">
+      <c r="A494" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="B494" s="2">
         <v>180</v>
@@ -5580,19 +5748,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="4" t="s">
-        <v>495</v>
+    <row r="495">
+      <c r="A495" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="B497" s="2">
         <v>160</v>
@@ -5601,24 +5769,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="4" t="s">
+    <row r="498">
+      <c r="A498" s="1" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="B501" s="2">
         <v>205</v>
@@ -5627,9 +5795,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="4" t="s">
-        <v>500</v>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="B502" s="2">
         <v>179</v>
@@ -5638,9 +5806,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="4" t="s">
-        <v>501</v>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="B503" s="2">
         <v>196</v>
@@ -5649,9 +5817,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="4" t="s">
-        <v>502</v>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="B504" s="2">
         <v>190</v>
@@ -5660,9 +5828,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="4" t="s">
-        <v>503</v>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="B505" s="2">
         <v>180</v>
@@ -5671,9 +5839,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="4" t="s">
-        <v>504</v>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="B506" s="2">
         <v>220</v>
@@ -5682,14 +5850,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="4" t="s">
-        <v>506</v>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="B508" s="2">
         <v>187</v>
@@ -5698,9 +5866,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="4" t="s">
-        <v>507</v>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="B509" s="2">
         <v>179</v>
@@ -5709,19 +5877,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="4" t="s">
-        <v>510</v>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="B512" s="2">
         <v>196</v>
@@ -5730,9 +5898,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="4" t="s">
-        <v>511</v>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="B513" s="2">
         <v>208</v>
@@ -5741,9 +5909,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="4" t="s">
-        <v>512</v>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="B514" s="2">
         <v>193</v>
@@ -5752,9 +5920,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" s="4" t="s">
-        <v>513</v>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="B515" s="2">
         <v>186</v>
@@ -5763,14 +5931,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="4" t="s">
-        <v>515</v>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="B517" s="2">
         <v>210</v>
@@ -5779,44 +5947,44 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="4" t="s">
+    <row r="518">
+      <c r="A518" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="4" t="s">
+    <row r="519">
+      <c r="A519" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="4" t="s">
+    <row r="520">
+      <c r="A520" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="4" t="s">
+    <row r="521">
+      <c r="A521" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="4" t="s">
+    <row r="522">
+      <c r="A522" s="1" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="B525" s="2">
         <v>185</v>
@@ -5825,24 +5993,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="4" t="s">
+    <row r="526">
+      <c r="A526" s="1" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="B529" s="2">
         <v>193</v>
@@ -5851,9 +6019,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="4" t="s">
-        <v>528</v>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B530" s="2">
         <v>196</v>
@@ -5862,59 +6030,59 @@
         <v>58</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="4" t="s">
+    <row r="531">
+      <c r="A531" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="4" t="s">
+    <row r="532">
+      <c r="A532" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="4" t="s">
+    <row r="533">
+      <c r="A533" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="4" t="s">
+    <row r="534">
+      <c r="A534" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="4" t="s">
+    <row r="535">
+      <c r="A535" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="4" t="s">
+    <row r="536">
+      <c r="A536" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="4" t="s">
+    <row r="537">
+      <c r="A537" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="4" t="s">
+    <row r="538">
+      <c r="A538" s="1" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="B541" s="2">
         <v>184</v>
@@ -5923,29 +6091,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="4" t="s">
+    <row r="542">
+      <c r="A542" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="4" t="s">
+    <row r="543">
+      <c r="A543" s="1" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="B546" s="2">
         <v>205</v>
@@ -5954,9 +6122,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="4" t="s">
-        <v>545</v>
+    <row r="547">
+      <c r="A547" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="B547" s="2">
         <v>211</v>
@@ -5965,9 +6133,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="4" t="s">
-        <v>546</v>
+    <row r="548">
+      <c r="A548" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="B548" s="2">
         <v>206</v>
@@ -5976,14 +6144,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="4" t="s">
-        <v>548</v>
+    <row r="549">
+      <c r="A549" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="B550" s="2">
         <v>210</v>
@@ -5992,24 +6160,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554" s="4" t="s">
+    <row r="551">
+      <c r="A551" s="1" t="s">
         <v>552</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="B554" s="2">
         <v>188</v>
@@ -6018,29 +6186,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="4" t="s">
+    <row r="555">
+      <c r="A555" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="4" t="s">
+    <row r="556">
+      <c r="A556" s="1" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="B559" s="2">
         <v>177</v>
@@ -6049,54 +6217,54 @@
         <v>77</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A560" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A561" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A562" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A563" s="4" t="s">
+    <row r="560">
+      <c r="A560" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A564" s="4" t="s">
+    <row r="561">
+      <c r="A561" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A565" s="4" t="s">
+    <row r="562">
+      <c r="A562" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A566" s="4" t="s">
+    <row r="563">
+      <c r="A563" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A567" s="4" t="s">
+    <row r="564">
+      <c r="A564" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A568" s="4" t="s">
+    <row r="565">
+      <c r="A565" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A569" s="4" t="s">
+    <row r="566">
+      <c r="A566" s="1" t="s">
         <v>567</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="B569" s="2">
         <v>220</v>
@@ -6105,14 +6273,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A570" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A571" s="4" t="s">
-        <v>569</v>
+    <row r="570">
+      <c r="A570" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="B571" s="2">
         <v>210</v>
@@ -6121,24 +6289,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A572" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A573" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A574" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A575" s="4" t="s">
+    <row r="572">
+      <c r="A572" s="1" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="B575" s="2">
         <v>190</v>
@@ -6147,9 +6315,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A576" s="4" t="s">
-        <v>574</v>
+    <row r="576">
+      <c r="A576" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="B576" s="2">
         <v>220</v>
@@ -6158,14 +6326,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A577" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A578" s="4" t="s">
-        <v>576</v>
+    <row r="577">
+      <c r="A577" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="B578" s="2">
         <v>180</v>
@@ -6174,19 +6342,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A579" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A580" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581" s="4" t="s">
-        <v>579</v>
+    <row r="579">
+      <c r="A579" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="B581" s="2">
         <v>185</v>
@@ -6195,9 +6363,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A582" s="4" t="s">
-        <v>580</v>
+    <row r="582">
+      <c r="A582" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="B582" s="2">
         <v>180</v>
@@ -6206,59 +6374,59 @@
         <v>70</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A583" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A584" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A585" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A586" s="4" t="s">
+    <row r="583">
+      <c r="A583" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A587" s="4" t="s">
+    <row r="584">
+      <c r="A584" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588" s="4" t="s">
+    <row r="585">
+      <c r="A585" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A589" s="4" t="s">
+    <row r="586">
+      <c r="A586" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A590" s="4" t="s">
+    <row r="587">
+      <c r="A587" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A591" s="4" t="s">
+    <row r="588">
+      <c r="A588" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A592" s="4" t="s">
+    <row r="589">
+      <c r="A589" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A593" s="4" t="s">
+    <row r="590">
+      <c r="A590" s="1" t="s">
         <v>591</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="B593" s="2">
         <v>215</v>
@@ -6267,24 +6435,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A594" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A595" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A596" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A597" s="4" t="s">
+    <row r="594">
+      <c r="A594" s="1" t="s">
         <v>595</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="B597" s="2">
         <v>220</v>
@@ -6293,29 +6461,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A598" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A599" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A600" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A601" s="4" t="s">
+    <row r="598">
+      <c r="A598" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A602" s="4" t="s">
+    <row r="599">
+      <c r="A599" s="1" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="B602" s="2">
         <v>180</v>
@@ -6324,9 +6492,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A603" s="4" t="s">
-        <v>601</v>
+    <row r="603">
+      <c r="A603" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="B603" s="2">
         <v>210</v>
@@ -6335,24 +6503,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A604" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A605" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A606" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A607" s="4" t="s">
+    <row r="604">
+      <c r="A604" s="1" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="B607" s="2">
         <v>200</v>
@@ -6361,9 +6529,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A608" s="4" t="s">
-        <v>606</v>
+    <row r="608">
+      <c r="A608" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="B608" s="2">
         <v>210</v>
@@ -6372,9 +6540,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A609" s="4" t="s">
-        <v>607</v>
+    <row r="609">
+      <c r="A609" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="B609" s="2">
         <v>195</v>
@@ -6383,9 +6551,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610" s="4" t="s">
-        <v>608</v>
+    <row r="610">
+      <c r="A610" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="B610" s="2">
         <v>180</v>
@@ -6394,14 +6562,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A611" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A612" s="4" t="s">
-        <v>610</v>
+    <row r="611">
+      <c r="A611" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="B612" s="2">
         <v>150</v>
@@ -6410,9 +6578,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A613" s="4" t="s">
-        <v>611</v>
+    <row r="613">
+      <c r="A613" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="B613" s="2">
         <v>200</v>
@@ -6421,19 +6589,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A614" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A615" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A616" s="4" t="s">
-        <v>614</v>
+    <row r="614">
+      <c r="A614" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="B616" s="2">
         <v>210</v>
@@ -6442,19 +6610,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A617" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A618" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A619" s="4" t="s">
-        <v>617</v>
+    <row r="617">
+      <c r="A617" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="B619" s="2">
         <v>207</v>
@@ -6463,9 +6631,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A620" s="4" t="s">
-        <v>618</v>
+    <row r="620">
+      <c r="A620" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="B620" s="2">
         <v>210</v>
@@ -6474,29 +6642,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A621" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A622" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A623" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A624" s="4" t="s">
+    <row r="621">
+      <c r="A621" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A625" s="4" t="s">
+    <row r="622">
+      <c r="A622" s="1" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="B625" s="2">
         <v>205</v>
@@ -6505,19 +6673,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A626" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A627" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A628" s="4" t="s">
-        <v>626</v>
+    <row r="626">
+      <c r="A626" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="B628" s="2">
         <v>200</v>
@@ -6526,19 +6694,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A629" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A630" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A631" s="4" t="s">
-        <v>629</v>
+    <row r="629">
+      <c r="A629" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="B631" s="2">
         <v>180</v>
@@ -6547,34 +6715,34 @@
         <v>70</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A632" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A633" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A634" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A635" s="4" t="s">
+    <row r="632">
+      <c r="A632" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A636" s="4" t="s">
+    <row r="633">
+      <c r="A633" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A637" s="4" t="s">
+    <row r="634">
+      <c r="A634" s="1" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="B637" s="2">
         <v>185</v>
@@ -6583,9 +6751,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A638" s="4" t="s">
-        <v>636</v>
+    <row r="638">
+      <c r="A638" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="B638" s="2">
         <v>185</v>
@@ -6594,29 +6762,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A639" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A640" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A641" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A642" s="4" t="s">
+    <row r="639">
+      <c r="A639" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A643" s="4" t="s">
+    <row r="640">
+      <c r="A640" s="1" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="B643" s="2">
         <v>170</v>
@@ -6625,24 +6793,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A644" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A645" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A646" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A647" s="4" t="s">
+    <row r="644">
+      <c r="A644" s="1" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="B647" s="2">
         <v>205</v>
@@ -6651,9 +6819,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A648" s="4" t="s">
-        <v>646</v>
+    <row r="648">
+      <c r="A648" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="B648" s="2">
         <v>205</v>
@@ -6662,14 +6830,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A649" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A650" s="4" t="s">
-        <v>648</v>
+    <row r="649">
+      <c r="A649" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="B650" s="2">
         <v>195</v>
@@ -6678,9 +6846,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A651" s="4" t="s">
-        <v>649</v>
+    <row r="651">
+      <c r="A651" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="B651" s="2">
         <v>197</v>
@@ -6689,44 +6857,44 @@
         <v>60</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A652" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A653" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A654" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A655" s="4" t="s">
+    <row r="652">
+      <c r="A652" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A656" s="4" t="s">
+    <row r="653">
+      <c r="A653" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A657" s="4" t="s">
+    <row r="654">
+      <c r="A654" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A658" s="4" t="s">
+    <row r="655">
+      <c r="A655" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A659" s="4" t="s">
+    <row r="656">
+      <c r="A656" s="1" t="s">
         <v>657</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="B659" s="2">
         <v>209</v>
@@ -6735,19 +6903,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A661" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A662" s="4" t="s">
-        <v>660</v>
+    <row r="660">
+      <c r="A660" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="B662" s="2">
         <v>190</v>
@@ -6756,54 +6924,54 @@
         <v>69</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A663" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A664" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A665" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A666" s="4" t="s">
+    <row r="663">
+      <c r="A663" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A667" s="4" t="s">
+    <row r="664">
+      <c r="A664" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A668" s="4" t="s">
+    <row r="665">
+      <c r="A665" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A669" s="4" t="s">
+    <row r="666">
+      <c r="A666" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A670" s="4" t="s">
+    <row r="667">
+      <c r="A667" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A671" s="4" t="s">
+    <row r="668">
+      <c r="A668" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A672" s="4" t="s">
+    <row r="669">
+      <c r="A669" s="1" t="s">
         <v>670</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="B672" s="2">
         <v>172</v>
@@ -6812,9 +6980,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A673" s="4" t="s">
-        <v>671</v>
+    <row r="673">
+      <c r="A673" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="B673" s="2">
         <v>194</v>
@@ -6823,14 +6991,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A675" s="4" t="s">
-        <v>673</v>
+    <row r="674">
+      <c r="A674" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="B675" s="2">
         <v>190</v>
@@ -6839,69 +7007,69 @@
         <v>70</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A676" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A677" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A678" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A679" s="4" t="s">
+    <row r="676">
+      <c r="A676" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A680" s="4" t="s">
+    <row r="677">
+      <c r="A677" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A681" s="4" t="s">
+    <row r="678">
+      <c r="A678" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A682" s="4" t="s">
+    <row r="679">
+      <c r="A679" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A683" s="4" t="s">
+    <row r="680">
+      <c r="A680" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A684" s="4" t="s">
+    <row r="681">
+      <c r="A681" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A685" s="4" t="s">
+    <row r="682">
+      <c r="A682" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A686" s="4" t="s">
+    <row r="683">
+      <c r="A683" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A687" s="4" t="s">
+    <row r="684">
+      <c r="A684" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A688" s="4" t="s">
+    <row r="685">
+      <c r="A685" s="1" t="s">
         <v>686</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="B688" s="2">
         <v>180</v>
@@ -6910,24 +7078,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A689" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A690" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A691" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A692" s="4" t="s">
+    <row r="689">
+      <c r="A689" s="1" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="B692" s="2">
         <v>230</v>
@@ -6936,19 +7104,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A693" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A694" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A695" s="4" t="s">
-        <v>693</v>
+    <row r="693">
+      <c r="A693" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="B695" s="2">
         <v>172</v>
@@ -6957,39 +7125,39 @@
         <v>47</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A696" s="4" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A697" s="4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A698" s="4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A699" s="4" t="s">
+    <row r="696">
+      <c r="A696" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A700" s="4" t="s">
+    <row r="697">
+      <c r="A697" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A701" s="4" t="s">
+    <row r="698">
+      <c r="A698" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A702" s="4" t="s">
+    <row r="699">
+      <c r="A699" s="1" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="B702" s="2">
         <v>180</v>
@@ -6998,74 +7166,74 @@
         <v>62</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A703" s="4" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A704" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A705" s="4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A706" s="4" t="s">
+    <row r="703">
+      <c r="A703" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A707" s="4" t="s">
+    <row r="704">
+      <c r="A704" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A708" s="4" t="s">
+    <row r="705">
+      <c r="A705" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A709" s="4" t="s">
+    <row r="706">
+      <c r="A706" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A710" s="4" t="s">
+    <row r="707">
+      <c r="A707" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A711" s="4" t="s">
+    <row r="708">
+      <c r="A708" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A712" s="4" t="s">
+    <row r="709">
+      <c r="A709" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A713" s="4" t="s">
+    <row r="710">
+      <c r="A710" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A714" s="4" t="s">
+    <row r="711">
+      <c r="A711" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A715" s="4" t="s">
+    <row r="712">
+      <c r="A712" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A716" s="4" t="s">
+    <row r="713">
+      <c r="A713" s="1" t="s">
         <v>714</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="B716" s="2">
         <v>175</v>
@@ -7074,9 +7242,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A717" s="4" t="s">
-        <v>715</v>
+    <row r="717">
+      <c r="A717" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="B717" s="2">
         <v>294</v>
@@ -7085,9 +7253,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A718" s="4" t="s">
-        <v>716</v>
+    <row r="718">
+      <c r="A718" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="B718" s="2">
         <v>360</v>
@@ -7096,14 +7264,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A719" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A720" s="4" t="s">
-        <v>718</v>
+    <row r="719">
+      <c r="A719" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="B720" s="2">
         <v>360</v>
@@ -7112,9 +7280,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A721" s="4" t="s">
-        <v>719</v>
+    <row r="721">
+      <c r="A721" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="B721" s="2">
         <v>204</v>
@@ -7124,6 +7292,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>